--- a/data/pca/factorExposure/factorExposure_2012-11-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-27.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0009263479396956122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00207780956180605</v>
+      </c>
+      <c r="C2">
+        <v>-0.03103705774701731</v>
+      </c>
+      <c r="D2">
+        <v>0.004476508325483798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0005737851399996489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00679367510304869</v>
+      </c>
+      <c r="C4">
+        <v>-0.08325226209757849</v>
+      </c>
+      <c r="D4">
+        <v>0.07601615326137916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0004281181468501537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01454213414555738</v>
+      </c>
+      <c r="C6">
+        <v>-0.1144949297397912</v>
+      </c>
+      <c r="D6">
+        <v>0.03377266279174734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001646115276975341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004705812311558772</v>
+      </c>
+      <c r="C7">
+        <v>-0.05793167135229722</v>
+      </c>
+      <c r="D7">
+        <v>0.0319147288186485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0004902038536286665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005634110406386034</v>
+      </c>
+      <c r="C8">
+        <v>-0.03659913563448682</v>
+      </c>
+      <c r="D8">
+        <v>0.04097618433463111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003730980638453293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004782118442204713</v>
+      </c>
+      <c r="C9">
+        <v>-0.07044534480133846</v>
+      </c>
+      <c r="D9">
+        <v>0.07365929196047721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002326193921490099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005619529131555638</v>
+      </c>
+      <c r="C10">
+        <v>-0.05792218715279422</v>
+      </c>
+      <c r="D10">
+        <v>-0.1967043407449875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002688944793296196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005829239434687766</v>
+      </c>
+      <c r="C11">
+        <v>-0.07980998171719729</v>
+      </c>
+      <c r="D11">
+        <v>0.0603966188286358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-9.398450023048109e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004166489331752256</v>
+      </c>
+      <c r="C12">
+        <v>-0.06414467842713864</v>
+      </c>
+      <c r="D12">
+        <v>0.04693036468000113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.0007869022585500461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008721504623400458</v>
+      </c>
+      <c r="C13">
+        <v>-0.06936013995412901</v>
+      </c>
+      <c r="D13">
+        <v>0.05806633978444783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001223702733646503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001203658072138624</v>
+      </c>
+      <c r="C14">
+        <v>-0.04410600779040331</v>
+      </c>
+      <c r="D14">
+        <v>0.006407394629369451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0006404608060542512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005989878995315949</v>
+      </c>
+      <c r="C15">
+        <v>-0.0416583486460303</v>
+      </c>
+      <c r="D15">
+        <v>0.0312103728775979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0005338029178577923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005119589378641036</v>
+      </c>
+      <c r="C16">
+        <v>-0.06449207132586127</v>
+      </c>
+      <c r="D16">
+        <v>0.05180223610012064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001992601674406178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008662124664514891</v>
+      </c>
+      <c r="C20">
+        <v>-0.06555784420660689</v>
+      </c>
+      <c r="D20">
+        <v>0.04282221329953682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005537598012547783</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009757077504480108</v>
+      </c>
+      <c r="C21">
+        <v>-0.02106638973523016</v>
+      </c>
+      <c r="D21">
+        <v>0.03819282780160897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01653937093612795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006078878047437736</v>
+      </c>
+      <c r="C22">
+        <v>-0.0939746670278154</v>
+      </c>
+      <c r="D22">
+        <v>0.1158472269151355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01688317149995312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.005903075779104603</v>
+      </c>
+      <c r="C23">
+        <v>-0.09479239989166793</v>
+      </c>
+      <c r="D23">
+        <v>0.1158696063606195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001620440791279963</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005620158850423037</v>
+      </c>
+      <c r="C24">
+        <v>-0.07699522888655631</v>
+      </c>
+      <c r="D24">
+        <v>0.06471176564457254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004223544165307207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003188516169385888</v>
+      </c>
+      <c r="C25">
+        <v>-0.07782417698137413</v>
+      </c>
+      <c r="D25">
+        <v>0.06603636402406395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.003706669004754298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003680227280660418</v>
+      </c>
+      <c r="C26">
+        <v>-0.0408129852128896</v>
+      </c>
+      <c r="D26">
+        <v>0.02147173128515482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004861474234392075</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006534866206929588</v>
+      </c>
+      <c r="C28">
+        <v>-0.1075965676114904</v>
+      </c>
+      <c r="D28">
+        <v>-0.3211352755845086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001678310242319291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003026375337543779</v>
+      </c>
+      <c r="C29">
+        <v>-0.04970890112318795</v>
+      </c>
+      <c r="D29">
+        <v>0.009342871466157487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002787369196547042</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01004300808086736</v>
+      </c>
+      <c r="C30">
+        <v>-0.1416704982710406</v>
+      </c>
+      <c r="D30">
+        <v>0.1038682448615007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.000813332378095954</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00635828682727485</v>
+      </c>
+      <c r="C31">
+        <v>-0.04443291030538117</v>
+      </c>
+      <c r="D31">
+        <v>0.02895386951820412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0005212379290533328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004069473522875868</v>
+      </c>
+      <c r="C32">
+        <v>-0.03852911085176326</v>
+      </c>
+      <c r="D32">
+        <v>0.02404034469369571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.00179308056280661</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008749669521979135</v>
+      </c>
+      <c r="C33">
+        <v>-0.08674886485734153</v>
+      </c>
+      <c r="D33">
+        <v>0.06509851055333088</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.00468709780897701</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.0040535980758921</v>
+      </c>
+      <c r="C34">
+        <v>-0.05726511793597754</v>
+      </c>
+      <c r="D34">
+        <v>0.05382392692845115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0007246501658570469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005080160166510545</v>
+      </c>
+      <c r="C35">
+        <v>-0.04002835527216169</v>
+      </c>
+      <c r="D35">
+        <v>0.01951599669176847</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003763985791222526</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00107682867983558</v>
+      </c>
+      <c r="C36">
+        <v>-0.02494246362548576</v>
+      </c>
+      <c r="D36">
+        <v>0.0210926288505679</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001741044687127143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009250764342071472</v>
+      </c>
+      <c r="C38">
+        <v>-0.03435723870087309</v>
+      </c>
+      <c r="D38">
+        <v>0.01481810834357396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01284283993243989</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007168520161750256</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156151092195711</v>
+      </c>
+      <c r="D39">
+        <v>0.0752674797143119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009572108329883321</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002745811018916574</v>
+      </c>
+      <c r="C40">
+        <v>-0.09015220831513596</v>
+      </c>
+      <c r="D40">
+        <v>0.01392185831154437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0009889265573394385</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007385394361815432</v>
+      </c>
+      <c r="C41">
+        <v>-0.03793889908755643</v>
+      </c>
+      <c r="D41">
+        <v>0.03871963551126168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003139305725570544</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003993840622259097</v>
+      </c>
+      <c r="C43">
+        <v>-0.05324927379929533</v>
+      </c>
+      <c r="D43">
+        <v>0.02436017147098405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.00619754004667527</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003096396748373567</v>
+      </c>
+      <c r="C44">
+        <v>-0.1094369684180905</v>
+      </c>
+      <c r="D44">
+        <v>0.0662911457546556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.00127791233321813</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.001907903401253871</v>
+      </c>
+      <c r="C46">
+        <v>-0.03307816623633984</v>
+      </c>
+      <c r="D46">
+        <v>0.03507534376614955</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0004495123317728925</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002688711572573768</v>
+      </c>
+      <c r="C47">
+        <v>-0.03703766995029439</v>
+      </c>
+      <c r="D47">
+        <v>0.02265448653641296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004338141215326385</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006798190981812374</v>
+      </c>
+      <c r="C48">
+        <v>-0.03115941264288589</v>
+      </c>
+      <c r="D48">
+        <v>0.03248153530107188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01111605348676405</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01603471411208682</v>
+      </c>
+      <c r="C49">
+        <v>-0.1822847489123622</v>
+      </c>
+      <c r="D49">
+        <v>0.01498589657135577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.00128574636493444</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003770063748120557</v>
+      </c>
+      <c r="C50">
+        <v>-0.04346328160713651</v>
+      </c>
+      <c r="D50">
+        <v>0.03730601157534906</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0011332557943137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004798419312782898</v>
+      </c>
+      <c r="C51">
+        <v>-0.02584602516174924</v>
+      </c>
+      <c r="D51">
+        <v>0.02131634823880267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0009215860643384773</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02125685705775666</v>
+      </c>
+      <c r="C53">
+        <v>-0.1700989262865201</v>
+      </c>
+      <c r="D53">
+        <v>0.02723819870602948</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001249299874483718</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008962388436325148</v>
+      </c>
+      <c r="C54">
+        <v>-0.05477602449445038</v>
+      </c>
+      <c r="D54">
+        <v>0.04358598826395228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004358609673730343</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009524977319675793</v>
+      </c>
+      <c r="C55">
+        <v>-0.1106290787603752</v>
+      </c>
+      <c r="D55">
+        <v>0.03830365778120927</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001820898067573181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.0204526118695114</v>
+      </c>
+      <c r="C56">
+        <v>-0.1741877123613181</v>
+      </c>
+      <c r="D56">
+        <v>0.01884680315575137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007660619378839027</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01953461549531776</v>
+      </c>
+      <c r="C58">
+        <v>-0.1095565359070312</v>
+      </c>
+      <c r="D58">
+        <v>0.06222978351741904</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.007159007030041451</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01015318426981132</v>
+      </c>
+      <c r="C59">
+        <v>-0.1653328775934813</v>
+      </c>
+      <c r="D59">
+        <v>-0.329678138482062</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003687216129938041</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02498508756008467</v>
+      </c>
+      <c r="C60">
+        <v>-0.2225797570822958</v>
+      </c>
+      <c r="D60">
+        <v>0.03061464458420356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01433615592145529</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001588762099280745</v>
+      </c>
+      <c r="C61">
+        <v>-0.09433379626447132</v>
+      </c>
+      <c r="D61">
+        <v>0.0565868227454558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1633835290843993</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1470162652450572</v>
+      </c>
+      <c r="C62">
+        <v>-0.09337227832439199</v>
+      </c>
+      <c r="D62">
+        <v>0.0382296193473937</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0002159736860430268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006593101882868871</v>
+      </c>
+      <c r="C63">
+        <v>-0.05479365527514964</v>
+      </c>
+      <c r="D63">
+        <v>0.02643699953224234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0006944981112103478</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01507499305926105</v>
+      </c>
+      <c r="C64">
+        <v>-0.1058503237829206</v>
+      </c>
+      <c r="D64">
+        <v>0.06096544910062324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002796997440702892</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01796798580648796</v>
+      </c>
+      <c r="C65">
+        <v>-0.124587530624453</v>
+      </c>
+      <c r="D65">
+        <v>0.02482629443325959</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007426426002360651</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01321626126308931</v>
+      </c>
+      <c r="C66">
+        <v>-0.1589848954895004</v>
+      </c>
+      <c r="D66">
+        <v>0.1119449332902194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003510285205277199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01567521995823335</v>
+      </c>
+      <c r="C67">
+        <v>-0.06545737249183195</v>
+      </c>
+      <c r="D67">
+        <v>0.02632092209174426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.00535850108380582</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001227776340084725</v>
+      </c>
+      <c r="C68">
+        <v>-0.08695260605759342</v>
+      </c>
+      <c r="D68">
+        <v>-0.2612942000768942</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.00215045142529408</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005922278837208027</v>
+      </c>
+      <c r="C69">
+        <v>-0.05037295995335717</v>
+      </c>
+      <c r="D69">
+        <v>0.03842957040828026</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-1.423290262285553e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001781660675014705</v>
+      </c>
+      <c r="C70">
+        <v>-0.002734018878851849</v>
+      </c>
+      <c r="D70">
+        <v>0.0008770952324294912</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0008942860783410091</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006372665521810491</v>
+      </c>
+      <c r="C71">
+        <v>-0.09442221531017865</v>
+      </c>
+      <c r="D71">
+        <v>-0.3043231189473397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003437989883739202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01631499967081892</v>
+      </c>
+      <c r="C72">
+        <v>-0.1526702898778739</v>
+      </c>
+      <c r="D72">
+        <v>0.01571559534263339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0114737067009264</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03153549555560198</v>
+      </c>
+      <c r="C73">
+        <v>-0.2797028401161198</v>
+      </c>
+      <c r="D73">
+        <v>0.05695767888816421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005463631144761981</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002063487350220473</v>
+      </c>
+      <c r="C74">
+        <v>-0.1043171841940373</v>
+      </c>
+      <c r="D74">
+        <v>0.03414405394410019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002824625311282645</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01146888603675334</v>
+      </c>
+      <c r="C75">
+        <v>-0.1252482826406347</v>
+      </c>
+      <c r="D75">
+        <v>0.02186254323670764</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.00780754773816337</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02231278965391857</v>
+      </c>
+      <c r="C76">
+        <v>-0.1491836782547841</v>
+      </c>
+      <c r="D76">
+        <v>0.05794522936444153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.003550619664095518</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02286197670280737</v>
+      </c>
+      <c r="C77">
+        <v>-0.1192513803944877</v>
+      </c>
+      <c r="D77">
+        <v>0.07923330233715063</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001425395026186097</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01513961212739757</v>
+      </c>
+      <c r="C78">
+        <v>-0.09658116102419734</v>
+      </c>
+      <c r="D78">
+        <v>0.07117793143753982</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02385347558180726</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03821930236621435</v>
+      </c>
+      <c r="C79">
+        <v>-0.1576519373114389</v>
+      </c>
+      <c r="D79">
+        <v>0.03143043908855792</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005769103813047156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01009733469793346</v>
+      </c>
+      <c r="C80">
+        <v>-0.03981403466417989</v>
+      </c>
+      <c r="D80">
+        <v>0.02888670886968276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0008095435783040525</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01621575835697129</v>
+      </c>
+      <c r="C81">
+        <v>-0.1288180481376176</v>
+      </c>
+      <c r="D81">
+        <v>0.04089812595414439</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.003858506263333941</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02013393426919238</v>
+      </c>
+      <c r="C82">
+        <v>-0.1418791177636395</v>
+      </c>
+      <c r="D82">
+        <v>0.0360313947779313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008520312075710156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.00997642627487829</v>
+      </c>
+      <c r="C83">
+        <v>-0.0552388371151936</v>
+      </c>
+      <c r="D83">
+        <v>0.05466251547087169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01196543108973025</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01145360126541313</v>
+      </c>
+      <c r="C84">
+        <v>-0.03622195576267032</v>
+      </c>
+      <c r="D84">
+        <v>-0.003547252848939087</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01387843837169103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.0291583024936437</v>
+      </c>
+      <c r="C85">
+        <v>-0.1255987140182563</v>
+      </c>
+      <c r="D85">
+        <v>0.04356377787260549</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002195483777476266</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004995957896135089</v>
+      </c>
+      <c r="C86">
+        <v>-0.04952284974199885</v>
+      </c>
+      <c r="D86">
+        <v>0.03097690650446197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.002912131341556335</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01094790678744321</v>
+      </c>
+      <c r="C87">
+        <v>-0.1287750179059068</v>
+      </c>
+      <c r="D87">
+        <v>0.07275522583667585</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01125685552153636</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002779900568654685</v>
+      </c>
+      <c r="C88">
+        <v>-0.06498754771027454</v>
+      </c>
+      <c r="D88">
+        <v>0.01965424741671493</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01368234571614128</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001211591789106058</v>
+      </c>
+      <c r="C89">
+        <v>-0.1469357145485458</v>
+      </c>
+      <c r="D89">
+        <v>-0.3293068507967365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.0005438371688247354</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007053718796228257</v>
+      </c>
+      <c r="C90">
+        <v>-0.1208003606017131</v>
+      </c>
+      <c r="D90">
+        <v>-0.3170046269416528</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0004853068575257642</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01057944552800551</v>
+      </c>
+      <c r="C91">
+        <v>-0.1003841969459259</v>
+      </c>
+      <c r="D91">
+        <v>0.02299158604711319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.00832945206548172</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001432843332107801</v>
+      </c>
+      <c r="C92">
+        <v>-0.1371092084707821</v>
+      </c>
+      <c r="D92">
+        <v>-0.3237156140184722</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0002557262158804789</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005314567658552907</v>
+      </c>
+      <c r="C93">
+        <v>-0.1062759088275298</v>
+      </c>
+      <c r="D93">
+        <v>-0.3004029880183531</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.002699863945435205</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02267635565195661</v>
+      </c>
+      <c r="C94">
+        <v>-0.1461293993536557</v>
+      </c>
+      <c r="D94">
+        <v>0.05020056709822528</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004812659613909946</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01684393444380698</v>
+      </c>
+      <c r="C95">
+        <v>-0.124115078618441</v>
+      </c>
+      <c r="D95">
+        <v>0.06116984822653732</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0001472609476495982</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.0367726135804532</v>
+      </c>
+      <c r="C97">
+        <v>-0.2139769239684713</v>
+      </c>
+      <c r="D97">
+        <v>-0.009775263157661926</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003215404345953525</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03751642032340385</v>
+      </c>
+      <c r="C98">
+        <v>-0.2499810504242655</v>
+      </c>
+      <c r="D98">
+        <v>0.0481922029878207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9848503403863277</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9816297504083272</v>
+      </c>
+      <c r="C99">
+        <v>0.1192249046009483</v>
+      </c>
+      <c r="D99">
+        <v>-0.02598109054324588</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001599480413520212</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003067669294531196</v>
+      </c>
+      <c r="C101">
+        <v>-0.04984997117541477</v>
+      </c>
+      <c r="D101">
+        <v>0.0097176339740797</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
